--- a/input_test/bills_gas_test.xlsx
+++ b/input_test/bills_gas_test.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mattia\desktop\GIT\LoBi\input_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive\Desktop\GIT\LoBi\input_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8100AF5B-9F21-48CB-9203-84BFB96C7D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D0774-9416-42FA-B305-33FD2349FAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2610" windowWidth="26865" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -105,7 +116,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,7 +397,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +487,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +495,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
